--- a/CDSO_deal_list.xlsx
+++ b/CDSO_deal_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Documents\Python\Walleye\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndjra\Dropbox\CVs\Nikh\python code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEAB417-8F95-4538-808A-505248611040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAD57C2-0E2B-4306-A746-0C2FD023AD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Deal IDs</t>
   </si>
@@ -54,9 +54,6 @@
     <t>num_down</t>
   </si>
   <si>
-    <t>SPSK0M81</t>
-  </si>
-  <si>
     <t>SW_PAY_NOTL_AMT</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>IG</t>
   </si>
   <si>
-    <t>SPOK0XCS</t>
-  </si>
-  <si>
     <t>ISSUER</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>EUROPE</t>
   </si>
   <si>
-    <t>SPSK0M85</t>
-  </si>
-  <si>
     <t>PX_LAST</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>XOVER</t>
   </si>
   <si>
-    <t>SPSC0LBW</t>
-  </si>
-  <si>
     <t>SW_CS_POSITION</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>HY</t>
   </si>
   <si>
-    <t>SPSK0M86</t>
-  </si>
-  <si>
     <t>SW_CDS_BUY_SELL_FLAG</t>
   </si>
   <si>
@@ -123,13 +108,31 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>SPKK0MHD</t>
-  </si>
-  <si>
     <t>SW_SPREAD</t>
   </si>
   <si>
     <t>THETA</t>
+  </si>
+  <si>
+    <t>SP2D01JL</t>
+  </si>
+  <si>
+    <t>SP8T01PF</t>
+  </si>
+  <si>
+    <t>SP8T01PG</t>
+  </si>
+  <si>
+    <t>SP2D01JN</t>
+  </si>
+  <si>
+    <t>SP1901P6</t>
+  </si>
+  <si>
+    <t>SP8T01PJ</t>
+  </si>
+  <si>
+    <t>SP8T01PK</t>
   </si>
 </sst>
 </file>
@@ -173,8 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -459,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,208 +481,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>2.5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
         <v>2.5</v>
       </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
